--- a/old_database/crypto/fastqFiles/fastq_2385.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_2385.xlsx
@@ -37,7 +37,7 @@
     <t>08.09.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2385</t>
   </si>
   <si>
     <t>sequence/run_2385_samples/2385_Brent_30_CTGGTGG_S30_R1_001.fastq</t>
